--- a/Results/Results_S4.xlsx
+++ b/Results/Results_S4.xlsx
@@ -404,25 +404,25 @@
         <v>2023</v>
       </c>
       <c r="B2">
-        <v>21.13602999991775</v>
+        <v>21.13602999991758</v>
       </c>
       <c r="C2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>-7.720548735420455E-07</v>
+        <v>-7.720556280982908E-07</v>
       </c>
       <c r="F2">
-        <v>0.2365582487350675</v>
+        <v>0.2377024068836954</v>
       </c>
       <c r="G2">
-        <v>3703.692345364393</v>
+        <v>3707.282554548144</v>
       </c>
       <c r="H2">
-        <v>0.5706745601149075</v>
+        <v>0.5701219070552799</v>
       </c>
     </row>
     <row r="3">
@@ -430,10 +430,10 @@
         <v>2024</v>
       </c>
       <c r="B3">
-        <v>21.91985209996995</v>
+        <v>21.91985209997013</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -442,13 +442,13 @@
         <v>3.86029E-07</v>
       </c>
       <c r="F3">
-        <v>0.2820645193805074</v>
+        <v>0.2833414185730214</v>
       </c>
       <c r="G3">
-        <v>3791.599079023174</v>
+        <v>3784.55922379831</v>
       </c>
       <c r="H3">
-        <v>0.578116294553409</v>
+        <v>0.5791916787067909</v>
       </c>
     </row>
     <row r="4">
@@ -456,7 +456,7 @@
         <v>2025</v>
       </c>
       <c r="B4">
-        <v>22.70966652997674</v>
+        <v>22.70966652997379</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -465,16 +465,16 @@
         <v>1</v>
       </c>
       <c r="E4">
-        <v>3.860258735420455E-07</v>
+        <v>3.860266280982908E-07</v>
       </c>
       <c r="F4">
-        <v>0.3011220799917115</v>
+        <v>0.302286879267628</v>
       </c>
       <c r="G4">
-        <v>3964.825534976314</v>
+        <v>3959.812384935633</v>
       </c>
       <c r="H4">
-        <v>0.5727784572017091</v>
+        <v>0.5735035987151432</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         <v>2026</v>
       </c>
       <c r="B5">
-        <v>23.48373150013598</v>
+        <v>23.48373149986257</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -494,13 +494,13 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.3130046922241833</v>
+        <v>0.3137745999759705</v>
       </c>
       <c r="G5">
-        <v>4158.336841863212</v>
+        <v>4173.901888914051</v>
       </c>
       <c r="H5">
-        <v>0.5647385575819227</v>
+        <v>0.5626325707903133</v>
       </c>
     </row>
     <row r="6">
@@ -508,7 +508,7 @@
         <v>2027</v>
       </c>
       <c r="B6">
-        <v>24.36210549995377</v>
+        <v>24.36210550014014</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -520,13 +520,13 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.3187499947211556</v>
+        <v>0.3200722264291359</v>
       </c>
       <c r="G6">
-        <v>4406.759659405781</v>
+        <v>4385.026548535142</v>
       </c>
       <c r="H6">
-        <v>0.5528349032594806</v>
+        <v>0.5555748689430061</v>
       </c>
     </row>
     <row r="7">
@@ -534,25 +534,25 @@
         <v>2028</v>
       </c>
       <c r="B7">
-        <v>25.37542010990412</v>
+        <v>25.37542010996573</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7">
-        <v>26.438934684</v>
+        <v>26.379995588</v>
       </c>
       <c r="F7">
-        <v>0.3653517956698264</v>
+        <v>0.3421734567666951</v>
       </c>
       <c r="G7">
-        <v>4609.903381877471</v>
+        <v>4640.860146977853</v>
       </c>
       <c r="H7">
-        <v>0.5504544891257459</v>
+        <v>0.5467826934300165</v>
       </c>
     </row>
     <row r="8">
@@ -560,25 +560,25 @@
         <v>2029</v>
       </c>
       <c r="B8">
-        <v>26.54542002996464</v>
+        <v>26.54542002996206</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E8">
-        <v>63.78558263994105</v>
+        <v>54.40294618651568</v>
       </c>
       <c r="F8">
-        <v>0.3669440773484119</v>
+        <v>0.3660310163922607</v>
       </c>
       <c r="G8">
-        <v>4752.94219248848</v>
+        <v>4765.482886700025</v>
       </c>
       <c r="H8">
-        <v>0.5585050050033609</v>
+        <v>0.5570352608766599</v>
       </c>
     </row>
     <row r="9">
@@ -586,25 +586,25 @@
         <v>2030</v>
       </c>
       <c r="B9">
-        <v>28.02171524996429</v>
+        <v>28.0217152499643</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E9">
-        <v>171.105105130564</v>
+        <v>145.3991487646602</v>
       </c>
       <c r="F9">
-        <v>0.3854721199573299</v>
+        <v>0.3854743807734936</v>
       </c>
       <c r="G9">
-        <v>4942.215460462473</v>
+        <v>4942.184028894884</v>
       </c>
       <c r="H9">
-        <v>0.5669869206257174</v>
+        <v>0.5669905265796061</v>
       </c>
     </row>
     <row r="10">
@@ -612,25 +612,25 @@
         <v>2031</v>
       </c>
       <c r="B10">
-        <v>28.68243932996432</v>
+        <v>28.6824393299643</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E10">
-        <v>228.3041859280878</v>
+        <v>227.1082206084343</v>
       </c>
       <c r="F10">
-        <v>0.3889768399627431</v>
+        <v>0.3896089912329467</v>
       </c>
       <c r="G10">
-        <v>5110.770183157217</v>
+        <v>5104.682057836884</v>
       </c>
       <c r="H10">
-        <v>0.5612155957332741</v>
+        <v>0.5618849324010303</v>
       </c>
     </row>
     <row r="11">
@@ -638,25 +638,25 @@
         <v>2032</v>
       </c>
       <c r="B11">
-        <v>29.39135154996429</v>
+        <v>29.39135154996428</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>38</v>
       </c>
       <c r="E11">
-        <v>281.2298627408497</v>
+        <v>281.5750356905482</v>
       </c>
       <c r="F11">
-        <v>0.3886549200894081</v>
+        <v>0.3896301042274204</v>
       </c>
       <c r="G11">
-        <v>5322.022386225875</v>
+        <v>5318.418603835355</v>
       </c>
       <c r="H11">
-        <v>0.5522590740323292</v>
+        <v>0.5526332870595939</v>
       </c>
     </row>
     <row r="12">
@@ -664,25 +664,25 @@
         <v>2033</v>
       </c>
       <c r="B12">
-        <v>30.16079037999476</v>
+        <v>30.16079037998892</v>
       </c>
       <c r="C12">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>53</v>
       </c>
       <c r="E12">
-        <v>488.8666287632073</v>
+        <v>467.8542710216323</v>
       </c>
       <c r="F12">
-        <v>0.3354154707720057</v>
+        <v>0.362567594658228</v>
       </c>
       <c r="G12">
-        <v>5679.456910523753</v>
+        <v>5651.598394477509</v>
       </c>
       <c r="H12">
-        <v>0.5310506066893175</v>
+        <v>0.5336683230970676</v>
       </c>
     </row>
     <row r="13">
@@ -690,25 +690,25 @@
         <v>2034</v>
       </c>
       <c r="B13">
-        <v>30.95495266995911</v>
+        <v>30.95495266993477</v>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13">
-        <v>496.6577934882412</v>
+        <v>508.0841732298305</v>
       </c>
       <c r="F13">
-        <v>0.3222880796835086</v>
+        <v>0.326530577490232</v>
       </c>
       <c r="G13">
-        <v>5937.835980979668</v>
+        <v>5967.15084430152</v>
       </c>
       <c r="H13">
-        <v>0.5213170718948005</v>
+        <v>0.518755993901109</v>
       </c>
     </row>
     <row r="14">
@@ -716,25 +716,25 @@
         <v>2035</v>
       </c>
       <c r="B14">
-        <v>31.72982493991241</v>
+        <v>31.72982493992158</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E14">
-        <v>383.6852610877975</v>
+        <v>384.2964778251018</v>
       </c>
       <c r="F14">
-        <v>0.3214161789267325</v>
+        <v>0.3260579364425291</v>
       </c>
       <c r="G14">
-        <v>6212.726496961576</v>
+        <v>6228.469181448259</v>
       </c>
       <c r="H14">
-        <v>0.5107230288574645</v>
+        <v>0.5094321576548875</v>
       </c>
     </row>
     <row r="15">
@@ -742,25 +742,25 @@
         <v>2036</v>
       </c>
       <c r="B15">
-        <v>31.88941800995005</v>
+        <v>31.88941800995</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>246.4574841144339</v>
+        <v>276.0190793475381</v>
       </c>
       <c r="F15">
-        <v>0.3079799158475811</v>
+        <v>0.3130209330724506</v>
       </c>
       <c r="G15">
-        <v>6341.831524409785</v>
+        <v>6354.220948242343</v>
       </c>
       <c r="H15">
-        <v>0.5028424026593469</v>
+        <v>0.5018619634051443</v>
       </c>
     </row>
     <row r="16">
@@ -768,25 +768,25 @@
         <v>2037</v>
       </c>
       <c r="B16">
-        <v>32.08456642994614</v>
+        <v>32.08456642994697</v>
       </c>
       <c r="C16">
-        <v>12</v>
+        <v>10.00000013028328</v>
       </c>
       <c r="D16">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>254.4444405355269</v>
+        <v>264.8609044457222</v>
       </c>
       <c r="F16">
-        <v>0.2826959713153734</v>
+        <v>0.2874269152761762</v>
       </c>
       <c r="G16">
-        <v>6487.911615861584</v>
+        <v>6518.688981595403</v>
       </c>
       <c r="H16">
-        <v>0.4945284142204728</v>
+        <v>0.4921935456735734</v>
       </c>
     </row>
     <row r="17">
@@ -794,25 +794,25 @@
         <v>2038</v>
       </c>
       <c r="B17">
-        <v>32.26831011997304</v>
+        <v>32.26831011997352</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E17">
-        <v>216.7328483249645</v>
+        <v>230.6378739437045</v>
       </c>
       <c r="F17">
-        <v>0.2721406528612172</v>
+        <v>0.2768715968220207</v>
       </c>
       <c r="G17">
-        <v>6575.800477123763</v>
+        <v>6613.354510897823</v>
       </c>
       <c r="H17">
-        <v>0.4907130353518133</v>
+        <v>0.4879265139468957</v>
       </c>
     </row>
     <row r="18">
@@ -820,7 +820,7 @@
         <v>2039</v>
       </c>
       <c r="B18">
-        <v>32.42996799994721</v>
+        <v>32.42996799994675</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -829,16 +829,16 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>213.9201958960464</v>
+        <v>212.184539156656</v>
       </c>
       <c r="F18">
-        <v>0.2748657213283685</v>
+        <v>0.2795966652891712</v>
       </c>
       <c r="G18">
-        <v>6738.306998660218</v>
+        <v>6785.631329923012</v>
       </c>
       <c r="H18">
-        <v>0.4812776860180945</v>
+        <v>0.4779211605107154</v>
       </c>
     </row>
     <row r="19">
@@ -846,25 +846,25 @@
         <v>2040</v>
       </c>
       <c r="B19">
-        <v>32.54665038994798</v>
+        <v>32.54665038994799</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E19">
-        <v>195.0683928492793</v>
+        <v>185.1008638717538</v>
       </c>
       <c r="F19">
-        <v>0.2764609549564097</v>
+        <v>0.2823518878342506</v>
       </c>
       <c r="G19">
-        <v>6847.936381580857</v>
+        <v>6873.080036417771</v>
       </c>
       <c r="H19">
-        <v>0.4752767633398274</v>
+        <v>0.4735380676130058</v>
       </c>
     </row>
     <row r="20">
@@ -878,19 +878,19 @@
         <v>3</v>
       </c>
       <c r="D20">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
-        <v>135.4360755261575</v>
+        <v>132.0709356529665</v>
       </c>
       <c r="F20">
-        <v>0.2726579719630105</v>
+        <v>0.2805879075827045</v>
       </c>
       <c r="G20">
-        <v>6852.54219766708</v>
+        <v>6867.761159842752</v>
       </c>
       <c r="H20">
-        <v>0.472344928732693</v>
+        <v>0.4712982121336524</v>
       </c>
     </row>
     <row r="21">
@@ -898,25 +898,25 @@
         <v>2042</v>
       </c>
       <c r="B21">
-        <v>32.17584943994999</v>
+        <v>32.17584943994828</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E21">
-        <v>78.05418370476303</v>
+        <v>108.3863609893531</v>
       </c>
       <c r="F21">
-        <v>0.2517347132620367</v>
+        <v>0.2605852750073993</v>
       </c>
       <c r="G21">
-        <v>6899.33654148498</v>
+        <v>6945.25172398783</v>
       </c>
       <c r="H21">
-        <v>0.4663615007976493</v>
+        <v>0.4632783766327411</v>
       </c>
     </row>
     <row r="22">
@@ -924,25 +924,25 @@
         <v>2043</v>
       </c>
       <c r="B22">
-        <v>31.94522881994868</v>
+        <v>31.94522881994698</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22">
-        <v>34.13501336837606</v>
+        <v>37.54620682972334</v>
       </c>
       <c r="F22">
-        <v>0.2406421834965285</v>
+        <v>0.2494927452418903</v>
       </c>
       <c r="G22">
-        <v>6889.724994525787</v>
+        <v>6944.706587553071</v>
       </c>
       <c r="H22">
-        <v>0.4636647884397516</v>
+        <v>0.4599939308768221</v>
       </c>
     </row>
     <row r="23">
@@ -950,25 +950,25 @@
         <v>2044</v>
       </c>
       <c r="B23">
-        <v>31.66522463995118</v>
+        <v>31.6652246399495</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>0.153541385</v>
+        <v>0.1675222655218415</v>
       </c>
       <c r="F23">
-        <v>0.2402583715324551</v>
+        <v>0.2491089332778169</v>
       </c>
       <c r="G23">
-        <v>6834.500794696129</v>
+        <v>6885.008980915103</v>
       </c>
       <c r="H23">
-        <v>0.4633143749800245</v>
+        <v>0.4599155168529758</v>
       </c>
     </row>
     <row r="24">
@@ -976,7 +976,7 @@
         <v>2045</v>
       </c>
       <c r="B24">
-        <v>31.34492401994992</v>
+        <v>31.34492401994824</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -985,16 +985,16 @@
         <v>3</v>
       </c>
       <c r="E24">
-        <v>24.92699783918356</v>
+        <v>25.32281625779605</v>
       </c>
       <c r="F24">
-        <v>0.2402597284489598</v>
+        <v>0.2492703839932572</v>
       </c>
       <c r="G24">
-        <v>6771.636493009875</v>
+        <v>6820.428897241818</v>
       </c>
       <c r="H24">
-        <v>0.4628855085813628</v>
+        <v>0.4595740897265879</v>
       </c>
     </row>
     <row r="25">
@@ -1002,25 +1002,25 @@
         <v>2046</v>
       </c>
       <c r="B25">
-        <v>30.88249230004433</v>
+        <v>30.88249230004506</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25">
-        <v>6.482571415577783</v>
+        <v>6.552910030577757</v>
       </c>
       <c r="F25">
-        <v>0.2386558781315122</v>
+        <v>0.2450685097108496</v>
       </c>
       <c r="G25">
-        <v>6704.999391992667</v>
+        <v>6753.630582574115</v>
       </c>
       <c r="H25">
-        <v>0.4605890395295967</v>
+        <v>0.4572724540150128</v>
       </c>
     </row>
     <row r="26">
@@ -1028,25 +1028,25 @@
         <v>2047</v>
       </c>
       <c r="B26">
-        <v>30.40041193995708</v>
+        <v>30.40041193995382</v>
       </c>
       <c r="C26">
-        <v>2.999999406195092</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26">
-        <v>68.49745368544338</v>
+        <v>70.39519882245075</v>
       </c>
       <c r="F26">
-        <v>0.2454534829538168</v>
+        <v>0.2528217540552825</v>
       </c>
       <c r="G26">
-        <v>6573.646492766125</v>
+        <v>6605.567000339182</v>
       </c>
       <c r="H26">
-        <v>0.4624588799140747</v>
+        <v>0.4602241100331406</v>
       </c>
     </row>
     <row r="27">
@@ -1054,25 +1054,25 @@
         <v>2048</v>
       </c>
       <c r="B27">
-        <v>29.92634875997264</v>
+        <v>29.926348759952</v>
       </c>
       <c r="C27">
-        <v>10.9999999828276</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>143.8064551610688</v>
+        <v>136.9724303969992</v>
       </c>
       <c r="F27">
-        <v>0.2691035002560775</v>
+        <v>0.2804855075434386</v>
       </c>
       <c r="G27">
-        <v>6513.527861348131</v>
+        <v>6511.630728793451</v>
       </c>
       <c r="H27">
-        <v>0.4594491556190052</v>
+        <v>0.4595830139387694</v>
       </c>
     </row>
     <row r="28">
@@ -1080,25 +1080,25 @@
         <v>2049</v>
       </c>
       <c r="B28">
-        <v>29.4603317400004</v>
+        <v>29.46033173995674</v>
       </c>
       <c r="C28">
-        <v>11.99999996335263</v>
+        <v>13</v>
       </c>
       <c r="D28">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E28">
-        <v>182.8695035203058</v>
+        <v>186.4203940268352</v>
       </c>
       <c r="F28">
-        <v>0.2617504018670898</v>
+        <v>0.2720784579469603</v>
       </c>
       <c r="G28">
-        <v>6457.639027236377</v>
+        <v>6477.261887277076</v>
       </c>
       <c r="H28">
-        <v>0.4562090202897001</v>
+        <v>0.4548269354034306</v>
       </c>
     </row>
     <row r="29">
@@ -1106,25 +1106,25 @@
         <v>2050</v>
       </c>
       <c r="B29">
-        <v>28.9985501800271</v>
+        <v>28.99855017995705</v>
       </c>
       <c r="C29">
-        <v>24</v>
+        <v>28.00000071740874</v>
       </c>
       <c r="D29">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E29">
-        <v>252.5207826650389</v>
+        <v>260.0644740294942</v>
       </c>
       <c r="F29">
-        <v>0.2627687379867936</v>
+        <v>0.272610607173848</v>
       </c>
       <c r="G29">
-        <v>6371.04979423202</v>
+        <v>6380.709652805436</v>
       </c>
       <c r="H29">
-        <v>0.455161254684914</v>
+        <v>0.454472178767876</v>
       </c>
     </row>
   </sheetData>
